--- a/DOWNLOADS/EDITAIS/U_90028_E_900862025/U_90028_E_900862025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_90028_E_900862025/U_90028_E_900862025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nº</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Estante - Partitura Estante - Partitura Material: Metal, Tipo: Desmontável, Comprimento: 430MM, Largura: 220MM, Características Adicionais: Acabamento Na Cor Preta</t>
+  </si>
+  <si>
+    <t>Estante Hercules de Partitura com Regulagem de Altura BS200B, ajuste EZ Clutch, cor preta, material alumínio, tipo dobrável, pés articuláveis, sistema EZ GLID, altura mínima 6,9 cm, altura máxima 110 cm, garantia mínima de 3 meses, frete e despesas de entrega inclusos, ambiente de entrega no Centro Cultural Justiça Federal.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -455,6 +458,9 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2">
         <v>10</v>
       </c>
@@ -462,13 +468,13 @@
         <v>3387.8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
